--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1697816.0223638</v>
+        <v>-1699766.248192361</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>160.9271104665245</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>38.24492906113647</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>133.4548648132225</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>85.70645777969102</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>189.392776865383</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>248.2086744913578</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>166.6118920086662</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1054,28 +1054,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>101.5627341327612</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>253.927755381858</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>205.0387455160873</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>104.7918499079228</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>171.7498680634317</v>
+        <v>108.219802131625</v>
       </c>
     </row>
     <row r="11">
@@ -1427,7 +1427,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>180.0334712995419</v>
       </c>
       <c r="T13" t="n">
-        <v>66.14085215535403</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>82.77352943984673</v>
       </c>
       <c r="W16" t="n">
-        <v>253.1361467692725</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>237.4804158064615</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>187.8774884495953</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>8.525532102719421</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>18.46423243228393</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>147.9844136830619</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522972</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E28" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373733</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2846,7 +2846,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522973</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539629</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
         <v>153.4156709287486</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1937.315630222944</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1568.353113282533</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>2327.454962198756</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X2" t="n">
-        <v>2327.454962198756</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y2" t="n">
-        <v>1937.315630222944</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>188.7458755710942</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>188.7458755710942</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>188.7458755710942</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>188.7458755710942</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>188.7458755710942</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>188.7458755710942</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>641.5568046309889</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>641.5568046309889</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>414.2486172995907</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>414.2486172995907</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V4" t="n">
-        <v>414.2486172995907</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="W4" t="n">
-        <v>414.2486172995907</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="X4" t="n">
-        <v>222.942782082032</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.942782082032</v>
+        <v>188.7458755710942</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1359.546482223454</v>
+        <v>1408.083041312479</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830421</v>
+        <v>1408.083041312479</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762915</v>
+        <v>1049.817342705728</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>1049.817342705728</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2352.676762919598</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2098.91497755769</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2098.91497755769</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W5" t="n">
-        <v>1746.146322287575</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X5" t="n">
-        <v>1746.146322287575</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="Y5" t="n">
-        <v>1746.146322287575</v>
+        <v>1794.6828813766</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.4444960005476</v>
+        <v>257.3478788207</v>
       </c>
       <c r="C7" t="n">
-        <v>370.8558756644252</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8558756644252</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005476</v>
+        <v>257.3478788207</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005476</v>
+        <v>257.3478788207</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.4444960005476</v>
+        <v>257.3478788207</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1791.109440255352</v>
+        <v>1666.64813361638</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>1297.685616675969</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1297.685616675969</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>911.8973640777244</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>904.951863328521</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>486.9880552267078</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>159.7933352627107</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.358616186807</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X8" t="n">
-        <v>2388.358616186807</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="Y8" t="n">
-        <v>1998.219284210995</v>
+        <v>2053.247973680502</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y10" t="n">
-        <v>554.6442689908469</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1029.666285013068</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C13" t="n">
-        <v>860.7301020851612</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728254</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1317.064279346244</v>
       </c>
       <c r="T13" t="n">
-        <v>1432.107328986838</v>
+        <v>1093.27886413575</v>
       </c>
       <c r="U13" t="n">
-        <v>1432.107328986838</v>
+        <v>1093.27886413575</v>
       </c>
       <c r="V13" t="n">
-        <v>1432.107328986838</v>
+        <v>1093.27886413575</v>
       </c>
       <c r="W13" t="n">
-        <v>1432.107328986838</v>
+        <v>803.861694098789</v>
       </c>
       <c r="X13" t="n">
-        <v>1432.107328986838</v>
+        <v>575.8721432007717</v>
       </c>
       <c r="Y13" t="n">
-        <v>1211.314749843308</v>
+        <v>575.8721432007717</v>
       </c>
     </row>
     <row r="14">
@@ -5264,25 +5264,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.6350999123426</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123426</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>926.257995990198</v>
       </c>
       <c r="W16" t="n">
-        <v>475.6246508103599</v>
+        <v>926.257995990198</v>
       </c>
       <c r="X16" t="n">
-        <v>247.6350999123426</v>
+        <v>926.257995990198</v>
       </c>
       <c r="Y16" t="n">
-        <v>247.6350999123426</v>
+        <v>705.4654168466678</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5504,28 +5504,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5537,7 +5537,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,19 +5546,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M18" t="n">
-        <v>857.5427825698952</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>675.7175987609741</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>1259.037062672588</v>
       </c>
       <c r="V19" t="n">
-        <v>1275.130855347408</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="W19" t="n">
-        <v>1085.355614489231</v>
+        <v>714.9354044297403</v>
       </c>
       <c r="X19" t="n">
-        <v>857.3660635912138</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="Y19" t="n">
-        <v>857.3660635912138</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="20">
@@ -5732,43 +5732,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5832,22 +5832,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619858</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.200876391121</v>
+        <v>105.8287400488913</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632137</v>
+        <v>105.8287400488913</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>105.8287400488913</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>105.8287400488913</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>105.8287400488913</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5941,19 +5941,19 @@
         <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119728</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V22" t="n">
-        <v>1387.841167119728</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W22" t="n">
-        <v>1369.190427289138</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="X22" t="n">
-        <v>1141.200876391121</v>
+        <v>326.6213191924214</v>
       </c>
       <c r="Y22" t="n">
-        <v>1141.200876391121</v>
+        <v>105.8287400488913</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,19 +6069,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>636.6030007360521</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>636.6030007360521</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="26">
@@ -6203,28 +6203,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6233,22 +6233,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G28" t="n">
         <v>221.5295092103129</v>
@@ -6379,16 +6379,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,16 +6528,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,19 +6683,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
@@ -6704,7 +6704,7 @@
         <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6719,10 +6719,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108339</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229681</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506735</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083215</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504522</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,22 +6871,22 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025263</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045215</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010325</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
@@ -6935,13 +6935,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,31 +7093,31 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7199,10 +7199,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,28 +7330,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010316</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7731,22 +7731,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
         <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>96.03744927814685</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>15.83804904622843</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,10 +11379,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>221.806731196956</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>310.9960396562765</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>6.187935255336717</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>36.3168785236541</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,10 +23464,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>17.88733868406132</v>
       </c>
       <c r="T13" t="n">
-        <v>155.4067089030352</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23476,13 +23476,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890383</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>169.3641138839813</v>
       </c>
       <c r="W16" t="n">
-        <v>33.3868515673185</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,22 +23941,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>48.75693659211589</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>98.64550988699571</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>157.9680363606582</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>268.0587659043071</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>138.5385846535291</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -26314,25 +26314,25 @@
         <v>77466.06243016743</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.1769864283</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="E2" t="n">
-        <v>78205.81194754172</v>
+        <v>78205.81194754176</v>
       </c>
       <c r="F2" t="n">
         <v>78205.81194754176</v>
       </c>
       <c r="G2" t="n">
-        <v>78205.81194754172</v>
+        <v>78205.81194754179</v>
       </c>
       <c r="H2" t="n">
-        <v>78205.81194754176</v>
+        <v>78205.81194754173</v>
       </c>
       <c r="I2" t="n">
-        <v>78205.81194754176</v>
+        <v>78205.81194754175</v>
       </c>
       <c r="J2" t="n">
         <v>82104.17698642846</v>
@@ -26341,19 +26341,19 @@
         <v>82104.17698642828</v>
       </c>
       <c r="L2" t="n">
+        <v>82104.17698642827</v>
+      </c>
+      <c r="M2" t="n">
         <v>82104.17698642837</v>
       </c>
-      <c r="M2" t="n">
-        <v>82104.17698642839</v>
-      </c>
       <c r="N2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="O2" t="n">
         <v>82104.17698642836</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642839</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>230928.7312963055</v>
+        <v>230928.7312963056</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.51210371258</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26439,25 +26439,25 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.4568627596</v>
       </c>
       <c r="K4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275964</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275956</v>
       </c>
       <c r="N4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26485,19 +26485,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="J5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-725663.0222847367</v>
+        <v>-725778.9751486433</v>
       </c>
       <c r="C6" t="n">
-        <v>-157529.8593282038</v>
+        <v>-157529.8593282037</v>
       </c>
       <c r="D6" t="n">
         <v>-157529.8593282037</v>
       </c>
       <c r="E6" t="n">
-        <v>-553987.22009951</v>
+        <v>-554084.6792254822</v>
       </c>
       <c r="F6" t="n">
-        <v>-28827.18362261397</v>
+        <v>-28924.64274858613</v>
       </c>
       <c r="G6" t="n">
-        <v>-28827.18362261401</v>
+        <v>-28924.64274858611</v>
       </c>
       <c r="H6" t="n">
-        <v>-28827.18362261396</v>
+        <v>-28924.64274858616</v>
       </c>
       <c r="I6" t="n">
-        <v>-28827.18362261397</v>
+        <v>-28924.64274858609</v>
       </c>
       <c r="J6" t="n">
-        <v>-284004.116992662</v>
+        <v>-284004.1169926622</v>
       </c>
       <c r="K6" t="n">
-        <v>-53075.38569635671</v>
+        <v>-53075.38569635661</v>
       </c>
       <c r="L6" t="n">
+        <v>-53075.38569635683</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-187876.4009301936</v>
+      </c>
+      <c r="N6" t="n">
         <v>-53075.38569635661</v>
       </c>
-      <c r="M6" t="n">
-        <v>-187876.4009301937</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-53075.38569635658</v>
-      </c>
       <c r="O6" t="n">
-        <v>-107580.8978000691</v>
+        <v>-107580.8978000692</v>
       </c>
       <c r="P6" t="n">
         <v>-53075.38569635658</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="K2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="L2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="K2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="L2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26753,10 +26753,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964075</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964075</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>363.5431654231323</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>22.71602402857269</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>60.95873420046681</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>158.6673712503536</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>49.83642834899155</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>65.68408696586665</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>32.59524295473304</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.6950961473933</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>47.13946633693848</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>46.83478528866308</v>
+        <v>110.3648512204698</v>
       </c>
     </row>
     <row r="11">
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="29">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35501,10 +35501,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330535</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>326.2624260966948</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36768,7 +36768,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L31" t="n">
         <v>318.3460770095692</v>
@@ -37008,7 +37008,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37245,7 +37245,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,16 +37865,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
